--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Arf1-Pld2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Arf1-Pld2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.62696966666667</v>
+        <v>49.88947433333334</v>
       </c>
       <c r="H2">
-        <v>166.880909</v>
+        <v>149.668423</v>
       </c>
       <c r="I2">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195875</v>
       </c>
       <c r="J2">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195874</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.602732666666667</v>
+        <v>7.938978333333334</v>
       </c>
       <c r="N2">
-        <v>22.808198</v>
+        <v>23.816935</v>
       </c>
       <c r="O2">
-        <v>0.2697011854344982</v>
+        <v>0.2711338618634719</v>
       </c>
       <c r="P2">
-        <v>0.2697011854344982</v>
+        <v>0.2711338618634719</v>
       </c>
       <c r="Q2">
-        <v>422.9169794324425</v>
+        <v>396.0714557937229</v>
       </c>
       <c r="R2">
-        <v>3806.252814891982</v>
+        <v>3564.643102143506</v>
       </c>
       <c r="S2">
-        <v>0.0720188481063533</v>
+        <v>0.06303538479108257</v>
       </c>
       <c r="T2">
-        <v>0.0720188481063533</v>
+        <v>0.06303538479108256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.62696966666667</v>
+        <v>49.88947433333334</v>
       </c>
       <c r="H3">
-        <v>166.880909</v>
+        <v>149.668423</v>
       </c>
       <c r="I3">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195875</v>
       </c>
       <c r="J3">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.621805666666666</v>
+        <v>7.621805666666667</v>
       </c>
       <c r="N3">
         <v>22.865417</v>
       </c>
       <c r="O3">
-        <v>0.2703777856696143</v>
+        <v>0.2603017060897501</v>
       </c>
       <c r="P3">
-        <v>0.2703777856696143</v>
+        <v>0.2603017060897501</v>
       </c>
       <c r="Q3">
-        <v>423.9779526248947</v>
+        <v>380.2478781808213</v>
       </c>
       <c r="R3">
-        <v>3815.801573624053</v>
+        <v>3422.230903627391</v>
       </c>
       <c r="S3">
-        <v>0.07219952202324043</v>
+        <v>0.06051703793975005</v>
       </c>
       <c r="T3">
-        <v>0.07219952202324043</v>
+        <v>0.06051703793975004</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.62696966666667</v>
+        <v>49.88947433333334</v>
       </c>
       <c r="H4">
-        <v>166.880909</v>
+        <v>149.668423</v>
       </c>
       <c r="I4">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195875</v>
       </c>
       <c r="J4">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195874</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.59987</v>
+        <v>2.437389666666667</v>
       </c>
       <c r="N4">
-        <v>7.79961</v>
+        <v>7.312169</v>
       </c>
       <c r="O4">
-        <v>0.09222841992720189</v>
+        <v>0.08324230718891248</v>
       </c>
       <c r="P4">
-        <v>0.0922284199272019</v>
+        <v>0.08324230718891248</v>
       </c>
       <c r="Q4">
-        <v>144.6228896272767</v>
+        <v>121.6000892154986</v>
       </c>
       <c r="R4">
-        <v>1301.60600664549</v>
+        <v>1094.400802939487</v>
       </c>
       <c r="S4">
-        <v>0.02462793982579396</v>
+        <v>0.01935284227682636</v>
       </c>
       <c r="T4">
-        <v>0.02462793982579397</v>
+        <v>0.01935284227682636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.62696966666667</v>
+        <v>49.88947433333334</v>
       </c>
       <c r="H5">
-        <v>166.880909</v>
+        <v>149.668423</v>
       </c>
       <c r="I5">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195875</v>
       </c>
       <c r="J5">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.36505866666667</v>
+        <v>11.282486</v>
       </c>
       <c r="N5">
-        <v>31.095176</v>
+        <v>33.847458</v>
       </c>
       <c r="O5">
-        <v>0.3676926089686857</v>
+        <v>0.3853221248578654</v>
       </c>
       <c r="P5">
-        <v>0.3676926089686857</v>
+        <v>0.3853221248578655</v>
       </c>
       <c r="Q5">
-        <v>576.5768040438871</v>
+        <v>562.8772957131928</v>
       </c>
       <c r="R5">
-        <v>5189.191236394984</v>
+        <v>5065.895661418735</v>
       </c>
       <c r="S5">
-        <v>0.09818569433605946</v>
+        <v>0.08958279221192844</v>
       </c>
       <c r="T5">
-        <v>0.09818569433605946</v>
+        <v>0.08958279221192844</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>190.071975</v>
       </c>
       <c r="I6">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="J6">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.602732666666667</v>
+        <v>7.938978333333334</v>
       </c>
       <c r="N6">
-        <v>22.808198</v>
+        <v>23.816935</v>
       </c>
       <c r="O6">
-        <v>0.2697011854344982</v>
+        <v>0.2711338618634719</v>
       </c>
       <c r="P6">
-        <v>0.2697011854344982</v>
+        <v>0.2711338618634719</v>
       </c>
       <c r="Q6">
-        <v>481.6888044501167</v>
+        <v>502.9924304329584</v>
       </c>
       <c r="R6">
-        <v>4335.199240051051</v>
+        <v>4526.931873896626</v>
       </c>
       <c r="S6">
-        <v>0.08202714605778894</v>
+        <v>0.08005202327899202</v>
       </c>
       <c r="T6">
-        <v>0.08202714605778892</v>
+        <v>0.08005202327899202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>190.071975</v>
       </c>
       <c r="I7">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="J7">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.621805666666666</v>
+        <v>7.621805666666667</v>
       </c>
       <c r="N7">
         <v>22.865417</v>
       </c>
       <c r="O7">
-        <v>0.2703777856696143</v>
+        <v>0.2603017060897501</v>
       </c>
       <c r="P7">
-        <v>0.2703777856696143</v>
+        <v>0.2603017060897501</v>
       </c>
       <c r="Q7">
-        <v>482.8972187098416</v>
+        <v>482.8972187098417</v>
       </c>
       <c r="R7">
-        <v>4346.074968388574</v>
+        <v>4346.074968388575</v>
       </c>
       <c r="S7">
-        <v>0.08223292782407667</v>
+        <v>0.07685383925210611</v>
       </c>
       <c r="T7">
-        <v>0.08223292782407665</v>
+        <v>0.07685383925210611</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>190.071975</v>
       </c>
       <c r="I8">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="J8">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.59987</v>
+        <v>2.437389666666667</v>
       </c>
       <c r="N8">
-        <v>7.79961</v>
+        <v>7.312169</v>
       </c>
       <c r="O8">
-        <v>0.09222841992720189</v>
+        <v>0.08324230718891248</v>
       </c>
       <c r="P8">
-        <v>0.0922284199272019</v>
+        <v>0.08324230718891248</v>
       </c>
       <c r="Q8">
-        <v>164.72080854775</v>
+        <v>154.4264892626417</v>
       </c>
       <c r="R8">
-        <v>1482.48727692975</v>
+        <v>1389.838403363775</v>
       </c>
       <c r="S8">
-        <v>0.02805042944049289</v>
+        <v>0.02457721461673905</v>
       </c>
       <c r="T8">
-        <v>0.02805042944049289</v>
+        <v>0.02457721461673905</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>190.071975</v>
       </c>
       <c r="I9">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="J9">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.36505866666667</v>
+        <v>11.282486</v>
       </c>
       <c r="N9">
-        <v>31.095176</v>
+        <v>33.847458</v>
       </c>
       <c r="O9">
-        <v>0.3676926089686857</v>
+        <v>0.3853221248578654</v>
       </c>
       <c r="P9">
-        <v>0.3676926089686857</v>
+        <v>0.3853221248578655</v>
       </c>
       <c r="Q9">
-        <v>656.7023905880668</v>
+        <v>714.8281323099501</v>
       </c>
       <c r="R9">
-        <v>5910.3215152926</v>
+        <v>6433.453190789551</v>
       </c>
       <c r="S9">
-        <v>0.1118303402769764</v>
+        <v>0.1137660028778138</v>
       </c>
       <c r="T9">
-        <v>0.1118303402769764</v>
+        <v>0.1137660028778138</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.67228600000001</v>
+        <v>52.37451933333333</v>
       </c>
       <c r="H10">
-        <v>110.016858</v>
+        <v>157.123558</v>
       </c>
       <c r="I10">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="J10">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.602732666666667</v>
+        <v>7.938978333333334</v>
       </c>
       <c r="N10">
-        <v>22.808198</v>
+        <v>23.816935</v>
       </c>
       <c r="O10">
-        <v>0.2697011854344982</v>
+        <v>0.2711338618634719</v>
       </c>
       <c r="P10">
-        <v>0.2697011854344982</v>
+        <v>0.2711338618634719</v>
       </c>
       <c r="Q10">
-        <v>278.8095867335427</v>
+        <v>415.8001742060811</v>
       </c>
       <c r="R10">
-        <v>2509.286280601884</v>
+        <v>3742.20156785473</v>
       </c>
       <c r="S10">
-        <v>0.04747869263727609</v>
+        <v>0.06617524084070812</v>
       </c>
       <c r="T10">
-        <v>0.04747869263727609</v>
+        <v>0.06617524084070812</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.67228600000001</v>
+        <v>52.37451933333333</v>
       </c>
       <c r="H11">
-        <v>110.016858</v>
+        <v>157.123558</v>
       </c>
       <c r="I11">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="J11">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.621805666666666</v>
+        <v>7.621805666666667</v>
       </c>
       <c r="N11">
         <v>22.865417</v>
       </c>
       <c r="O11">
-        <v>0.2703777856696143</v>
+        <v>0.2603017060897501</v>
       </c>
       <c r="P11">
-        <v>0.2703777856696143</v>
+        <v>0.2603017060897501</v>
       </c>
       <c r="Q11">
-        <v>279.5090372444207</v>
+        <v>399.1884082437429</v>
       </c>
       <c r="R11">
-        <v>2515.581335199786</v>
+        <v>3592.695674193686</v>
       </c>
       <c r="S11">
-        <v>0.04759780258686581</v>
+        <v>0.06353145259447623</v>
       </c>
       <c r="T11">
-        <v>0.04759780258686581</v>
+        <v>0.06353145259447623</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.67228600000001</v>
+        <v>52.37451933333333</v>
       </c>
       <c r="H12">
-        <v>110.016858</v>
+        <v>157.123558</v>
       </c>
       <c r="I12">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="J12">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.59987</v>
+        <v>2.437389666666667</v>
       </c>
       <c r="N12">
-        <v>7.79961</v>
+        <v>7.312169</v>
       </c>
       <c r="O12">
-        <v>0.09222841992720189</v>
+        <v>0.08324230718891248</v>
       </c>
       <c r="P12">
-        <v>0.0922284199272019</v>
+        <v>0.08324230718891248</v>
       </c>
       <c r="Q12">
-        <v>95.34317620282002</v>
+        <v>127.6571122197002</v>
       </c>
       <c r="R12">
-        <v>858.0885858253802</v>
+        <v>1148.914009977302</v>
       </c>
       <c r="S12">
-        <v>0.01623606064278401</v>
+        <v>0.02031682685630875</v>
       </c>
       <c r="T12">
-        <v>0.01623606064278401</v>
+        <v>0.02031682685630875</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.67228600000001</v>
+        <v>52.37451933333333</v>
       </c>
       <c r="H13">
-        <v>110.016858</v>
+        <v>157.123558</v>
       </c>
       <c r="I13">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="J13">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.36505866666667</v>
+        <v>11.282486</v>
       </c>
       <c r="N13">
-        <v>31.095176</v>
+        <v>33.847458</v>
       </c>
       <c r="O13">
-        <v>0.3676926089686857</v>
+        <v>0.3853221248578654</v>
       </c>
       <c r="P13">
-        <v>0.3676926089686857</v>
+        <v>0.3853221248578655</v>
       </c>
       <c r="Q13">
-        <v>380.1103958307788</v>
+        <v>590.9147811350626</v>
       </c>
       <c r="R13">
-        <v>3420.993562477009</v>
+        <v>5318.233030215564</v>
       </c>
       <c r="S13">
-        <v>0.06472928303261856</v>
+        <v>0.09404500138224135</v>
       </c>
       <c r="T13">
-        <v>0.06472928303261856</v>
+        <v>0.09404500138224137</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>52.65915966666667</v>
+        <v>48.96808833333333</v>
       </c>
       <c r="H14">
-        <v>157.977479</v>
+        <v>146.904265</v>
       </c>
       <c r="I14">
-        <v>0.2527853132096734</v>
+        <v>0.2281943410810271</v>
       </c>
       <c r="J14">
-        <v>0.2527853132096734</v>
+        <v>0.228194341081027</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.602732666666667</v>
+        <v>7.938978333333334</v>
       </c>
       <c r="N14">
-        <v>22.808198</v>
+        <v>23.816935</v>
       </c>
       <c r="O14">
-        <v>0.2697011854344982</v>
+        <v>0.2711338618634719</v>
       </c>
       <c r="P14">
-        <v>0.2697011854344982</v>
+        <v>0.2711338618634719</v>
       </c>
       <c r="Q14">
-        <v>400.3535133969825</v>
+        <v>388.7565923030862</v>
       </c>
       <c r="R14">
-        <v>3603.181620572842</v>
+        <v>3498.809330727775</v>
       </c>
       <c r="S14">
-        <v>0.06817649863307983</v>
+        <v>0.06187121295268918</v>
       </c>
       <c r="T14">
-        <v>0.06817649863307983</v>
+        <v>0.06187121295268917</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>52.65915966666667</v>
+        <v>48.96808833333333</v>
       </c>
       <c r="H15">
-        <v>157.977479</v>
+        <v>146.904265</v>
       </c>
       <c r="I15">
-        <v>0.2527853132096734</v>
+        <v>0.2281943410810271</v>
       </c>
       <c r="J15">
-        <v>0.2527853132096734</v>
+        <v>0.228194341081027</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.621805666666666</v>
+        <v>7.621805666666667</v>
       </c>
       <c r="N15">
         <v>22.865417</v>
       </c>
       <c r="O15">
-        <v>0.2703777856696143</v>
+        <v>0.2603017060897501</v>
       </c>
       <c r="P15">
-        <v>0.2703777856696143</v>
+        <v>0.2603017060897501</v>
       </c>
       <c r="Q15">
-        <v>401.3578815493048</v>
+        <v>373.2252531448339</v>
       </c>
       <c r="R15">
-        <v>3612.220933943743</v>
+        <v>3359.027278303505</v>
       </c>
       <c r="S15">
-        <v>0.06834753323543141</v>
+        <v>0.05939937630341768</v>
       </c>
       <c r="T15">
-        <v>0.06834753323543141</v>
+        <v>0.05939937630341768</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>52.65915966666667</v>
+        <v>48.96808833333333</v>
       </c>
       <c r="H16">
-        <v>157.977479</v>
+        <v>146.904265</v>
       </c>
       <c r="I16">
-        <v>0.2527853132096734</v>
+        <v>0.2281943410810271</v>
       </c>
       <c r="J16">
-        <v>0.2527853132096734</v>
+        <v>0.228194341081027</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.59987</v>
+        <v>2.437389666666667</v>
       </c>
       <c r="N16">
-        <v>7.79961</v>
+        <v>7.312169</v>
       </c>
       <c r="O16">
-        <v>0.09222841992720189</v>
+        <v>0.08324230718891248</v>
       </c>
       <c r="P16">
-        <v>0.0922284199272019</v>
+        <v>0.08324230718891248</v>
       </c>
       <c r="Q16">
-        <v>136.9069694425767</v>
+        <v>119.3543125000872</v>
       </c>
       <c r="R16">
-        <v>1232.16272498319</v>
+        <v>1074.188812500785</v>
       </c>
       <c r="S16">
-        <v>0.02331399001813101</v>
+        <v>0.01899542343903833</v>
       </c>
       <c r="T16">
-        <v>0.02331399001813102</v>
+        <v>0.01899542343903832</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>52.65915966666667</v>
+        <v>48.96808833333333</v>
       </c>
       <c r="H17">
-        <v>157.977479</v>
+        <v>146.904265</v>
       </c>
       <c r="I17">
-        <v>0.2527853132096734</v>
+        <v>0.2281943410810271</v>
       </c>
       <c r="J17">
-        <v>0.2527853132096734</v>
+        <v>0.228194341081027</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.36505866666667</v>
+        <v>11.282486</v>
       </c>
       <c r="N17">
-        <v>31.095176</v>
+        <v>33.847458</v>
       </c>
       <c r="O17">
-        <v>0.3676926089686857</v>
+        <v>0.3853221248578654</v>
       </c>
       <c r="P17">
-        <v>0.3676926089686857</v>
+        <v>0.3853221248578655</v>
       </c>
       <c r="Q17">
-        <v>545.8152792823672</v>
+        <v>552.4817710675967</v>
       </c>
       <c r="R17">
-        <v>4912.337513541305</v>
+        <v>4972.335939608371</v>
       </c>
       <c r="S17">
-        <v>0.09294729132303117</v>
+        <v>0.08792832838588184</v>
       </c>
       <c r="T17">
-        <v>0.09294729132303117</v>
+        <v>0.08792832838588184</v>
       </c>
     </row>
   </sheetData>
